--- a/controllers/MyXLS.xlsx
+++ b/controllers/MyXLS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>Category</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Prod2</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
 </sst>
 </file>
@@ -375,13 +372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,8 +394,80 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:29">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -414,8 +483,26 @@
       <c r="E2">
         <v>15</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:29">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -431,158 +518,76 @@
       <c r="E3">
         <v>14</v>
       </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:29">
       <c r="A4" t="b">
         <v>0</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
+      <c r="H4">
         <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
